--- a/QP-ranking.xlsx
+++ b/QP-ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riuflare/Documents/GitHub/Queendom-Puzzle-Rankings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38599E-7B4D-E946-B0C6-9A6FF0B8B354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B40FD6E-F2F4-284E-930A-4C6F5BE95D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="55">
   <si>
     <t>Nana</t>
   </si>
@@ -113,6 +113,78 @@
   </si>
   <si>
     <t>Haein</t>
+  </si>
+  <si>
+    <t>PICK on the top</t>
+  </si>
+  <si>
+    <t>PICK-CAT</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>DROP The Beat</t>
+  </si>
+  <si>
+    <t>SignalSong</t>
+  </si>
+  <si>
+    <t>Woo!ah!</t>
+  </si>
+  <si>
+    <t>WJSN</t>
+  </si>
+  <si>
+    <t>H1-KEY</t>
+  </si>
+  <si>
+    <t>Lovelyz</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
+  <si>
+    <t>Weeekly</t>
+  </si>
+  <si>
+    <t>Purple Kiss</t>
+  </si>
+  <si>
+    <t>Cherry Bullet</t>
+  </si>
+  <si>
+    <t>Rocket Punch</t>
+  </si>
+  <si>
+    <t>TripleS</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>NMB48</t>
+  </si>
+  <si>
+    <t>Weki Meki</t>
+  </si>
+  <si>
+    <t>BNK48</t>
+  </si>
+  <si>
+    <t>LIGHTSUM</t>
+  </si>
+  <si>
+    <t>MOMOLAND</t>
+  </si>
+  <si>
+    <t>IZ*ONE</t>
+  </si>
+  <si>
+    <t>LABOUM</t>
+  </si>
+  <si>
+    <t>InitialGroup</t>
   </si>
 </sst>
 </file>
@@ -383,10 +455,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -401,8 +473,12 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -415,8 +491,12 @@
       <c r="C2" s="1">
         <v>22</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -429,8 +509,12 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -443,8 +527,12 @@
       <c r="C4" s="1">
         <v>22</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -457,8 +545,12 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -471,8 +563,12 @@
       <c r="C6" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -485,8 +581,12 @@
       <c r="C7" s="1">
         <v>8</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -499,8 +599,12 @@
       <c r="C8" s="1">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -513,8 +617,12 @@
       <c r="C9" s="1">
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -527,8 +635,12 @@
       <c r="C10" s="1">
         <v>15</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -541,8 +653,12 @@
       <c r="C11" s="1">
         <v>15</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -555,8 +671,12 @@
       <c r="C12" s="1">
         <v>15</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -569,8 +689,12 @@
       <c r="C13" s="1">
         <v>15</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -583,8 +707,12 @@
       <c r="C14" s="1">
         <v>22</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -597,8 +725,12 @@
       <c r="C15" s="1">
         <v>8</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -611,8 +743,12 @@
       <c r="C16" s="2">
         <v>22</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -625,8 +761,12 @@
       <c r="C17" s="1">
         <v>15</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -639,8 +779,12 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -653,8 +797,12 @@
       <c r="C19" s="2">
         <v>22</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -667,8 +815,12 @@
       <c r="C20" s="2">
         <v>22</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -681,8 +833,12 @@
       <c r="C21" s="2">
         <v>22</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -695,8 +851,12 @@
       <c r="C22" s="1">
         <v>8</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -709,8 +869,12 @@
       <c r="C23" s="2">
         <v>22</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -723,8 +887,12 @@
       <c r="C24" s="1">
         <v>8</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -737,8 +905,12 @@
       <c r="C25" s="1">
         <v>15</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -751,8 +923,12 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -765,8 +941,12 @@
       <c r="C27" s="1">
         <v>15</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -779,8 +959,12 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -793,8 +977,12 @@
       <c r="C29" s="1">
         <v>8</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -807,8 +995,12 @@
       <c r="C30" s="1">
         <v>6</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -821,8 +1013,12 @@
       <c r="C31" s="1">
         <v>2</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -835,8 +1031,12 @@
       <c r="C32" s="1">
         <v>4</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -849,8 +1049,12 @@
       <c r="C33" s="1">
         <v>8</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,8 +1067,12 @@
       <c r="C34" s="1">
         <v>6</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -877,8 +1085,12 @@
       <c r="C35" s="1">
         <v>9</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -891,8 +1103,12 @@
       <c r="C36" s="1">
         <v>12</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -905,8 +1121,12 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -919,8 +1139,12 @@
       <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -933,8 +1157,12 @@
       <c r="C39" s="1">
         <v>20</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -947,8 +1175,12 @@
       <c r="C40" s="1">
         <v>15</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -961,8 +1193,12 @@
       <c r="C41" s="1">
         <v>15</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -975,8 +1211,12 @@
       <c r="C42" s="1">
         <v>24</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -989,8 +1229,12 @@
       <c r="C43" s="1">
         <v>10</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1003,8 +1247,12 @@
       <c r="C44" s="1">
         <v>19</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1017,8 +1265,12 @@
       <c r="C45" s="1">
         <v>20</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1031,8 +1283,12 @@
       <c r="C46" s="1">
         <v>17</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1045,8 +1301,12 @@
       <c r="C47" s="1">
         <v>23</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1059,8 +1319,12 @@
       <c r="C48" s="1">
         <v>24</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1073,8 +1337,12 @@
       <c r="C49" s="1">
         <v>10</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1087,8 +1355,12 @@
       <c r="C50" s="1">
         <v>12</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1101,8 +1373,12 @@
       <c r="C51" s="1">
         <v>17</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1115,8 +1391,12 @@
       <c r="C52" s="1">
         <v>12</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1129,8 +1409,12 @@
       <c r="C53" s="1">
         <v>27</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1143,8 +1427,12 @@
       <c r="C54" s="1">
         <v>22</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1157,8 +1445,12 @@
       <c r="C55" s="1">
         <v>24</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1171,8 +1463,12 @@
       <c r="C56" s="1">
         <v>5</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1185,8 +1481,12 @@
       <c r="C57" s="2">
         <v>23</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1199,8 +1499,12 @@
       <c r="C58" s="1">
         <v>27</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1213,8 +1517,12 @@
       <c r="C59" s="2">
         <v>27</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1227,8 +1535,12 @@
       <c r="C60" s="1">
         <v>1</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1241,8 +1553,12 @@
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1255,8 +1571,12 @@
       <c r="C62" s="1">
         <v>3</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1269,8 +1589,12 @@
       <c r="C63" s="1">
         <v>4</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1283,8 +1607,12 @@
       <c r="C64" s="1">
         <v>5</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1297,8 +1625,12 @@
       <c r="C65" s="1">
         <v>6</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1311,8 +1643,12 @@
       <c r="C66" s="1">
         <v>7</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1325,8 +1661,12 @@
       <c r="C67" s="1">
         <v>8</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
@@ -1338,8 +1678,12 @@
       <c r="C68" s="1">
         <v>9</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
@@ -1351,8 +1695,12 @@
       <c r="C69" s="1">
         <v>10</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1365,8 +1713,12 @@
       <c r="C70" s="1">
         <v>11</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1379,8 +1731,12 @@
       <c r="C71" s="1">
         <v>12</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1393,8 +1749,12 @@
       <c r="C72" s="1">
         <v>13</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1407,8 +1767,12 @@
       <c r="C73" s="1">
         <v>14</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
@@ -1420,8 +1784,12 @@
       <c r="C74" s="1">
         <v>15</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
@@ -1433,8 +1801,12 @@
       <c r="C75" s="1">
         <v>16</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1447,8 +1819,12 @@
       <c r="C76" s="1">
         <v>17</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1461,8 +1837,12 @@
       <c r="C77" s="1">
         <v>18</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
@@ -1474,8 +1854,12 @@
       <c r="C78" s="1">
         <v>19</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1488,8 +1872,12 @@
       <c r="C79" s="1">
         <v>20</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
@@ -1501,10 +1889,14 @@
       <c r="C80" s="1">
         <v>21</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>7</v>
       </c>
@@ -1514,8 +1906,14 @@
       <c r="C81" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -1525,8 +1923,14 @@
       <c r="C82" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>7</v>
       </c>
@@ -1536,8 +1940,14 @@
       <c r="C83" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>7</v>
       </c>
@@ -1547,8 +1957,14 @@
       <c r="C84" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>7</v>
       </c>
@@ -1558,8 +1974,14 @@
       <c r="C85" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>8</v>
       </c>
@@ -1569,8 +1991,14 @@
       <c r="C86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -1580,8 +2008,14 @@
       <c r="C87" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>8</v>
       </c>
@@ -1591,8 +2025,14 @@
       <c r="C88" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>8</v>
       </c>
@@ -1602,8 +2042,14 @@
       <c r="C89" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>8</v>
       </c>
@@ -1613,8 +2059,14 @@
       <c r="C90" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>8</v>
       </c>
@@ -1624,8 +2076,14 @@
       <c r="C91" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>8</v>
       </c>
@@ -1635,8 +2093,14 @@
       <c r="C92" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>8</v>
       </c>
@@ -1646,8 +2110,14 @@
       <c r="C93" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>8</v>
       </c>
@@ -1657,8 +2127,14 @@
       <c r="C94" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>8</v>
       </c>
@@ -1668,8 +2144,14 @@
       <c r="C95" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>8</v>
       </c>
@@ -1679,8 +2161,14 @@
       <c r="C96" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>8</v>
       </c>
@@ -1690,8 +2178,14 @@
       <c r="C97" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>8</v>
       </c>
@@ -1701,8 +2195,14 @@
       <c r="C98" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>8</v>
       </c>
@@ -1712,8 +2212,14 @@
       <c r="C99" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>8</v>
       </c>
@@ -1723,8 +2229,14 @@
       <c r="C100" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>8</v>
       </c>
@@ -1734,8 +2246,14 @@
       <c r="C101" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>8</v>
       </c>
@@ -1745,8 +2263,14 @@
       <c r="C102" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>8</v>
       </c>
@@ -1756,8 +2280,14 @@
       <c r="C103" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>8</v>
       </c>
@@ -1767,8 +2297,14 @@
       <c r="C104" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>8</v>
       </c>
@@ -1778,8 +2314,14 @@
       <c r="C105" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>8</v>
       </c>
@@ -1789,8 +2331,14 @@
       <c r="C106" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>9</v>
       </c>
@@ -1800,8 +2348,14 @@
       <c r="C107" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -1811,8 +2365,14 @@
       <c r="C108" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>9</v>
       </c>
@@ -1822,8 +2382,14 @@
       <c r="C109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>9</v>
       </c>
@@ -1833,8 +2399,14 @@
       <c r="C110" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>9</v>
       </c>
@@ -1844,8 +2416,14 @@
       <c r="C111" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>9</v>
       </c>
@@ -1855,8 +2433,14 @@
       <c r="C112" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>9</v>
       </c>
@@ -1866,8 +2450,14 @@
       <c r="C113" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>9</v>
       </c>
@@ -1877,8 +2467,14 @@
       <c r="C114" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>9</v>
       </c>
@@ -1888,8 +2484,14 @@
       <c r="C115" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>9</v>
       </c>
@@ -1899,8 +2501,14 @@
       <c r="C116" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>9</v>
       </c>
@@ -1910,8 +2518,14 @@
       <c r="C117" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D117" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>9</v>
       </c>
@@ -1921,8 +2535,14 @@
       <c r="C118" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D118" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>9</v>
       </c>
@@ -1932,8 +2552,14 @@
       <c r="C119" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>9</v>
       </c>
@@ -1943,8 +2569,14 @@
       <c r="C120" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>9</v>
       </c>
@@ -1954,8 +2586,14 @@
       <c r="C121" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>9</v>
       </c>
@@ -1965,8 +2603,14 @@
       <c r="C122" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>9</v>
       </c>
@@ -1976,8 +2620,14 @@
       <c r="C123" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>9</v>
       </c>
@@ -1987,8 +2637,14 @@
       <c r="C124" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>9</v>
       </c>
@@ -1998,8 +2654,14 @@
       <c r="C125" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>9</v>
       </c>
@@ -2009,8 +2671,14 @@
       <c r="C126" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>9</v>
       </c>
@@ -2020,8 +2688,14 @@
       <c r="C127" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>10</v>
       </c>
@@ -2031,8 +2705,14 @@
       <c r="C128" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>10</v>
       </c>
@@ -2042,8 +2722,14 @@
       <c r="C129" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D129" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>10</v>
       </c>
@@ -2053,8 +2739,14 @@
       <c r="C130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>10</v>
       </c>
@@ -2064,8 +2756,14 @@
       <c r="C131" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>10</v>
       </c>
@@ -2075,8 +2773,14 @@
       <c r="C132" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>10</v>
       </c>
@@ -2086,8 +2790,14 @@
       <c r="C133" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>10</v>
       </c>
@@ -2097,8 +2807,14 @@
       <c r="C134" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>10</v>
       </c>
@@ -2108,8 +2824,14 @@
       <c r="C135" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D135" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>10</v>
       </c>
@@ -2119,8 +2841,14 @@
       <c r="C136" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>10</v>
       </c>
@@ -2130,8 +2858,14 @@
       <c r="C137" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>10</v>
       </c>
@@ -2141,8 +2875,14 @@
       <c r="C138" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>10</v>
       </c>
@@ -2152,8 +2892,14 @@
       <c r="C139" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>10</v>
       </c>
@@ -2163,8 +2909,14 @@
       <c r="C140" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D140" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>10</v>
       </c>
@@ -2174,6 +2926,27 @@
       <c r="C141" s="1">
         <v>11</v>
       </c>
+      <c r="D141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E146" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QP-ranking.xlsx
+++ b/QP-ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riuflare/Documents/GitHub/Queendom-Puzzle-Rankings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B40FD6E-F2F4-284E-930A-4C6F5BE95D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5DB581-5D37-6740-8308-A30BEE11F91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="84">
   <si>
     <t>Nana</t>
   </si>
@@ -100,15 +100,6 @@
     <t>Chaerin</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Ranking</t>
-  </si>
-  <si>
-    <t>Episode</t>
-  </si>
-  <si>
     <t>Chaeyeon</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>DROP The Beat</t>
   </si>
   <si>
-    <t>SignalSong</t>
-  </si>
-  <si>
     <t>Woo!ah!</t>
   </si>
   <si>
@@ -184,7 +172,106 @@
     <t>LABOUM</t>
   </si>
   <si>
-    <t>InitialGroup</t>
+    <t>Nxde</t>
+  </si>
+  <si>
+    <t>Don't Call Me</t>
+  </si>
+  <si>
+    <t>Shut Down</t>
+  </si>
+  <si>
+    <t>Only One</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>Dance The Night Away</t>
+  </si>
+  <si>
+    <t>Queendom</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
+  <si>
+    <t>If We Ever Meet Again</t>
+  </si>
+  <si>
+    <t>Rush Hour</t>
+  </si>
+  <si>
+    <t>Wannabe</t>
+  </si>
+  <si>
+    <t>Time of Our Life</t>
+  </si>
+  <si>
+    <t>Hopeless Romantic</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Bad Blood</t>
+  </si>
+  <si>
+    <t>Glow-up</t>
+  </si>
+  <si>
+    <t>Overwater</t>
+  </si>
+  <si>
+    <t>Puzzlin'</t>
+  </si>
+  <si>
+    <t>i DGA</t>
+  </si>
+  <si>
+    <t>I Do</t>
+  </si>
+  <si>
+    <t>Last Piece</t>
+  </si>
+  <si>
+    <t>Billionaire</t>
+  </si>
+  <si>
+    <t>signal_song</t>
+  </si>
+  <si>
+    <t>initial_group</t>
+  </si>
+  <si>
+    <t>remix_song</t>
+  </si>
+  <si>
+    <t>all_rounder_team</t>
+  </si>
+  <si>
+    <t>vocal_rap_song</t>
+  </si>
+  <si>
+    <t>dance_song</t>
+  </si>
+  <si>
+    <t>semi_final_song</t>
+  </si>
+  <si>
+    <t>finale_song</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>episode</t>
   </si>
 </sst>
 </file>
@@ -455,33 +542,54 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -492,14 +600,31 @@
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -510,14 +635,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -528,14 +670,31 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -546,14 +705,31 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -564,14 +740,31 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -582,14 +775,31 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -600,14 +810,31 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -618,14 +845,29 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -636,14 +878,29 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -654,14 +911,31 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -672,14 +946,31 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -690,14 +981,31 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -708,14 +1016,31 @@
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -726,14 +1051,29 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -744,14 +1084,29 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -762,14 +1117,31 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -780,14 +1152,31 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -798,14 +1187,28 @@
         <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -816,14 +1219,31 @@
         <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -834,14 +1254,28 @@
         <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -852,14 +1286,28 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -870,14 +1318,25 @@
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -888,14 +1347,25 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -906,14 +1376,25 @@
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -924,14 +1405,25 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -942,50 +1434,61 @@
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -996,14 +1499,31 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -1014,14 +1534,31 @@
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -1032,14 +1569,31 @@
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -1050,14 +1604,31 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -1068,14 +1639,31 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -1086,14 +1674,31 @@
         <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -1104,14 +1709,31 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -1122,14 +1744,29 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -1140,14 +1777,29 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -1158,14 +1810,31 @@
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -1176,14 +1845,31 @@
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -1194,14 +1880,31 @@
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -1212,14 +1915,31 @@
         <v>24</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -1230,14 +1950,29 @@
         <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -1248,14 +1983,29 @@
         <v>19</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -1266,14 +2016,31 @@
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -1284,14 +2051,31 @@
         <v>17</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>2</v>
       </c>
@@ -1302,14 +2086,28 @@
         <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -1320,14 +2118,31 @@
         <v>24</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -1338,14 +2153,28 @@
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>2</v>
       </c>
@@ -1356,14 +2185,28 @@
         <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -1374,14 +2217,25 @@
         <v>17</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>2</v>
       </c>
@@ -1392,14 +2246,25 @@
         <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>2</v>
       </c>
@@ -1410,14 +2275,25 @@
         <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>2</v>
       </c>
@@ -1428,14 +2304,25 @@
         <v>22</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>2</v>
       </c>
@@ -1446,86 +2333,97 @@
         <v>24</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2">
         <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C58" s="1">
         <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C59" s="2">
         <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>7</v>
       </c>
@@ -1536,14 +2434,31 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>7</v>
       </c>
@@ -1554,14 +2469,31 @@
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>7</v>
       </c>
@@ -1572,14 +2504,31 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>7</v>
       </c>
@@ -1590,14 +2539,31 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>7</v>
       </c>
@@ -1608,14 +2574,31 @@
         <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>7</v>
       </c>
@@ -1626,14 +2609,31 @@
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>7</v>
       </c>
@@ -1644,14 +2644,31 @@
         <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>7</v>
       </c>
@@ -1662,13 +2679,29 @@
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>7</v>
       </c>
@@ -1679,13 +2712,29 @@
         <v>9</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>7</v>
       </c>
@@ -1696,14 +2745,31 @@
         <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>7</v>
       </c>
@@ -1714,14 +2780,31 @@
         <v>11</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>7</v>
       </c>
@@ -1732,14 +2815,31 @@
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>7</v>
       </c>
@@ -1750,14 +2850,31 @@
         <v>13</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>7</v>
       </c>
@@ -1768,13 +2885,29 @@
         <v>14</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>7</v>
       </c>
@@ -1785,13 +2918,29 @@
         <v>15</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>7</v>
       </c>
@@ -1802,14 +2951,31 @@
         <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>7</v>
       </c>
@@ -1820,14 +2986,31 @@
         <v>17</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>7</v>
       </c>
@@ -1838,13 +3021,28 @@
         <v>18</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>7</v>
       </c>
@@ -1855,14 +3053,31 @@
         <v>19</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>7</v>
       </c>
@@ -1873,13 +3088,28 @@
         <v>20</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>7</v>
       </c>
@@ -1890,13 +3120,28 @@
         <v>21</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>7</v>
       </c>
@@ -1907,13 +3152,25 @@
         <v>22</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -1924,13 +3181,25 @@
         <v>23</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>7</v>
       </c>
@@ -1941,13 +3210,25 @@
         <v>24</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>7</v>
       </c>
@@ -1958,13 +3239,25 @@
         <v>25</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>7</v>
       </c>
@@ -1975,13 +3268,25 @@
         <v>26</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>8</v>
       </c>
@@ -1992,13 +3297,31 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -2009,13 +3332,31 @@
         <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>8</v>
       </c>
@@ -2026,13 +3367,31 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>8</v>
       </c>
@@ -2043,13 +3402,31 @@
         <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>8</v>
       </c>
@@ -2060,13 +3437,31 @@
         <v>4</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>8</v>
       </c>
@@ -2077,13 +3472,31 @@
         <v>14</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>8</v>
       </c>
@@ -2094,13 +3507,31 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>8</v>
       </c>
@@ -2111,13 +3542,29 @@
         <v>17</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>8</v>
       </c>
@@ -2128,13 +3575,29 @@
         <v>20</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>8</v>
       </c>
@@ -2145,13 +3608,31 @@
         <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>8</v>
       </c>
@@ -2162,13 +3643,31 @@
         <v>7</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>8</v>
       </c>
@@ -2179,13 +3678,31 @@
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>8</v>
       </c>
@@ -2196,13 +3713,31 @@
         <v>11</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>8</v>
       </c>
@@ -2213,13 +3748,29 @@
         <v>19</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>8</v>
       </c>
@@ -2230,13 +3781,29 @@
         <v>15</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>8</v>
       </c>
@@ -2247,13 +3814,31 @@
         <v>13</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>8</v>
       </c>
@@ -2264,13 +3849,31 @@
         <v>8</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>8</v>
       </c>
@@ -2281,13 +3884,28 @@
         <v>16</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>8</v>
       </c>
@@ -2298,13 +3916,31 @@
         <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>8</v>
       </c>
@@ -2315,13 +3951,28 @@
         <v>21</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>8</v>
       </c>
@@ -2332,13 +3983,28 @@
         <v>18</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>9</v>
       </c>
@@ -2349,13 +4015,31 @@
         <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -2366,13 +4050,31 @@
         <v>4</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>9</v>
       </c>
@@ -2383,13 +4085,31 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>9</v>
       </c>
@@ -2400,13 +4120,31 @@
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>9</v>
       </c>
@@ -2417,13 +4155,31 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>9</v>
       </c>
@@ -2434,13 +4190,31 @@
         <v>11</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>9</v>
       </c>
@@ -2451,13 +4225,31 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>9</v>
       </c>
@@ -2468,13 +4260,29 @@
         <v>20</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>9</v>
       </c>
@@ -2485,13 +4293,29 @@
         <v>15</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>9</v>
       </c>
@@ -2502,13 +4326,31 @@
         <v>9</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>9</v>
       </c>
@@ -2519,13 +4361,31 @@
         <v>7</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>9</v>
       </c>
@@ -2536,13 +4396,31 @@
         <v>12</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>9</v>
       </c>
@@ -2553,13 +4431,31 @@
         <v>13</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>9</v>
       </c>
@@ -2570,13 +4466,29 @@
         <v>19</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>9</v>
       </c>
@@ -2587,13 +4499,29 @@
         <v>18</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>9</v>
       </c>
@@ -2604,13 +4532,31 @@
         <v>14</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>9</v>
       </c>
@@ -2621,13 +4567,31 @@
         <v>10</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>9</v>
       </c>
@@ -2638,13 +4602,28 @@
         <v>17</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>9</v>
       </c>
@@ -2655,13 +4634,31 @@
         <v>8</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>9</v>
       </c>
@@ -2672,13 +4669,28 @@
         <v>16</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>9</v>
       </c>
@@ -2689,13 +4701,28 @@
         <v>21</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>10</v>
       </c>
@@ -2706,13 +4733,31 @@
         <v>2</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>10</v>
       </c>
@@ -2723,13 +4768,31 @@
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>10</v>
       </c>
@@ -2740,13 +4803,31 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>10</v>
       </c>
@@ -2757,13 +4838,31 @@
         <v>4</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>10</v>
       </c>
@@ -2774,13 +4873,31 @@
         <v>7</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>10</v>
       </c>
@@ -2791,13 +4908,31 @@
         <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>10</v>
       </c>
@@ -2808,13 +4943,31 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>10</v>
       </c>
@@ -2825,13 +4978,31 @@
         <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>10</v>
       </c>
@@ -2842,13 +5013,31 @@
         <v>6</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>10</v>
       </c>
@@ -2859,13 +5048,31 @@
         <v>8</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>10</v>
       </c>
@@ -2876,13 +5083,31 @@
         <v>9</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>10</v>
       </c>
@@ -2893,13 +5118,31 @@
         <v>13</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>10</v>
       </c>
@@ -2910,13 +5153,31 @@
         <v>14</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>10</v>
       </c>
@@ -2927,26 +5188,61 @@
         <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E146" s="2"/>
+      <c r="J146" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QP-ranking.xlsx
+++ b/QP-ranking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riuflare/Documents/GitHub/Queendom-Puzzle-Rankings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5DB581-5D37-6740-8308-A30BEE11F91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF48F03D-96F2-CA47-8813-06759D468CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="27320" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="85">
   <si>
     <t>Nana</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>episode</t>
+  </si>
+  <si>
+    <t>initial_rank</t>
   </si>
 </sst>
 </file>
@@ -542,4707 +545,5143 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>22</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>22</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>22</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>15</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>1</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>15</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>1</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>8</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>2</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>6</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>2</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>2</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>2</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>8</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>2</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>6</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>2</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>9</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>12</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>2</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>2</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>2</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>20</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>2</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>15</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>2</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>15</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>2</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>24</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>2</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>10</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>2</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>19</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>2</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>20</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>2</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>17</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>2</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>23</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>2</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="1">
         <v>24</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>2</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>10</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>2</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>12</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>2</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>17</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>2</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>12</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>2</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>27</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>2</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>22</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>2</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>24</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>2</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>5</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>2</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="2">
+      <c r="D57" s="2">
         <v>23</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>3</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="1">
         <v>27</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>3</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="2">
+      <c r="D59" s="2">
         <v>27</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>7</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>7</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>7</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="1">
+      <c r="B62" s="2">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
         <v>3</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>7</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="1">
         <v>4</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>7</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>5</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>7</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="1">
         <v>6</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>7</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>7</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>7</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>8</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>7</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
         <v>9</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>7</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>10</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="L69" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>7</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>11</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="J70" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>7</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>12</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>7</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>13</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>7</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="1">
         <v>14</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>7</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="1">
         <v>15</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>7</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>16</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>7</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>17</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>7</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="1">
         <v>18</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>7</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>19</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>7</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>20</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>7</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>21</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>7</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>22</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>7</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>23</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>7</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>24</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>7</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D84" s="1">
         <v>25</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>7</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="1">
         <v>26</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>8</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H86" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="J86" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="L86" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>8</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="K87" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="L87" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>8</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="1">
+      <c r="B88" s="2">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
         <v>3</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>8</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>6</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>8</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>4</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>8</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>14</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>8</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>5</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>8</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>17</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>8</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="1">
+      <c r="D94" s="1">
         <v>20</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="K94" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>8</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D95" s="1">
         <v>12</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>8</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="1">
         <v>7</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>8</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="1">
+      <c r="D97" s="1">
         <v>9</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>8</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2">
+        <v>4</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="1">
+      <c r="D98" s="1">
         <v>11</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="J98" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="K98" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>8</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="1">
+      <c r="D99" s="1">
         <v>19</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="J99" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="K99" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>8</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="1">
+      <c r="D100" s="1">
         <v>15</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="J100" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>8</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="1">
+      <c r="D101" s="1">
         <v>13</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="K101" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="L101" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>8</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="1">
+      <c r="D102" s="1">
         <v>8</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H102" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="L102" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>8</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="1">
+      <c r="D103" s="1">
         <v>16</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="J103" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="K103" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>8</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2">
+        <v>4</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="1">
+      <c r="D104" s="1">
         <v>10</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="J104" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="K104" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="L104" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>8</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2">
+        <v>4</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="1">
+      <c r="D105" s="1">
         <v>21</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="J105" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="K105" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>8</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="1">
+      <c r="D106" s="1">
         <v>18</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="J106" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="K106" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>9</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="1">
-        <v>2</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="J107" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="K107" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="L107" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>9</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1">
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
         <v>4</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="J108" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="K108" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K108" s="1" t="s">
+      <c r="L108" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>9</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="1">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="B109" s="2">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="J109" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="L109" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>9</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="1">
+      <c r="D110" s="1">
         <v>6</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="J110" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="K110" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K110" s="1" t="s">
+      <c r="L110" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>9</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C111" s="1">
+      <c r="D111" s="1">
         <v>5</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H111" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="J111" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K111" s="1" t="s">
+      <c r="L111" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>9</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="1">
+      <c r="D112" s="1">
         <v>11</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="J112" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="K112" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K112" s="1" t="s">
+      <c r="L112" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>9</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="1">
+      <c r="D113" s="1">
         <v>3</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="J113" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="K113" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K113" s="1" t="s">
+      <c r="L113" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>9</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="1">
+      <c r="D114" s="1">
         <v>20</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="J114" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="K114" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>9</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C115" s="1">
+      <c r="D115" s="1">
         <v>15</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="J115" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="K115" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>9</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2">
+        <v>3</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="1">
+      <c r="D116" s="1">
         <v>9</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="J116" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K116" s="1" t="s">
+      <c r="L116" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>9</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="1">
+      <c r="D117" s="1">
         <v>7</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="J117" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="K117" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K117" s="1" t="s">
+      <c r="L117" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>9</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2">
+        <v>3</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="1">
+      <c r="D118" s="1">
         <v>12</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H118" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="J118" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="K118" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="L118" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>9</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2">
+        <v>4</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C119" s="1">
+      <c r="D119" s="1">
         <v>13</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H119" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="J119" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="K119" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K119" s="1" t="s">
+      <c r="L119" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>9</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="1">
+      <c r="D120" s="1">
         <v>19</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H120" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="J120" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="K120" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>9</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C121" s="1">
+      <c r="D121" s="1">
         <v>18</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="J121" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="K121" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>9</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C122" s="1">
+      <c r="D122" s="1">
         <v>14</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="J122" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="K122" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K122" s="1" t="s">
+      <c r="L122" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>9</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="1">
+      <c r="D123" s="1">
         <v>10</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="K123" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K123" s="1" t="s">
+      <c r="L123" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>9</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="1">
+      <c r="D124" s="1">
         <v>17</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="J124" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="K124" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>9</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2">
+        <v>4</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="1">
+      <c r="D125" s="1">
         <v>8</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="J125" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="K125" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="L125" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>9</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="1">
+      <c r="D126" s="1">
         <v>16</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="J126" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="K126" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>9</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C127" s="1">
+      <c r="D127" s="1">
         <v>21</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="J127" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="K127" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>10</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2">
+        <v>4</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C128" s="1">
-        <v>2</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="1">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="J128" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="K128" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K128" s="1" t="s">
+      <c r="L128" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>10</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="1">
+      <c r="B129" s="2">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
         <v>5</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="J129" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="K129" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K129" s="1" t="s">
+      <c r="L129" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>10</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="1">
-        <v>1</v>
-      </c>
-      <c r="D130" s="1" t="s">
+      <c r="B130" s="2">
+        <v>4</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I130" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="J130" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="K130" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K130" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>10</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="1">
+      <c r="D131" s="1">
         <v>4</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H131" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="J131" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="K131" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K131" s="1" t="s">
+      <c r="L131" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>10</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C132" s="1">
+      <c r="D132" s="1">
         <v>7</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H132" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="J132" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="K132" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K132" s="1" t="s">
+      <c r="L132" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>10</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2">
+        <v>2</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C133" s="1">
+      <c r="D133" s="1">
         <v>10</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I133" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="J133" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="K133" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K133" s="1" t="s">
+      <c r="L133" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>10</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C134" s="1">
+      <c r="D134" s="1">
         <v>3</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H134" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="J134" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="K134" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K134" s="1" t="s">
+      <c r="L134" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>10</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C135" s="1">
+      <c r="D135" s="1">
         <v>12</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="J135" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J135" s="1" t="s">
+      <c r="K135" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K135" s="1" t="s">
+      <c r="L135" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>10</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="1">
+      <c r="D136" s="1">
         <v>6</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I136" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="J136" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="K136" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K136" s="1" t="s">
+      <c r="L136" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>10</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2">
+        <v>3</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C137" s="1">
+      <c r="D137" s="1">
         <v>8</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H137" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="J137" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="K137" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K137" s="1" t="s">
+      <c r="L137" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>10</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="1">
+      <c r="D138" s="1">
         <v>9</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I138" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="J138" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="K138" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K138" s="1" t="s">
+      <c r="L138" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>10</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2">
+        <v>3</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C139" s="1">
+      <c r="D139" s="1">
         <v>13</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="J139" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="K139" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K139" s="1" t="s">
+      <c r="L139" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>10</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="1">
+      <c r="D140" s="1">
         <v>14</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H140" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I140" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="J140" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="K140" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K140" s="1" t="s">
+      <c r="L140" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>10</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="1">
+      <c r="D141" s="1">
         <v>11</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H141" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I141" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="J141" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="K141" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K141" s="1" t="s">
+      <c r="L141" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="2"/>
-      <c r="F142" s="1"/>
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="2"/>
+      <c r="F142" s="2"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E143" s="2"/>
-      <c r="F143" s="1"/>
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="2"/>
+      <c r="F143" s="2"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E144" s="2"/>
-      <c r="F144" s="1"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="2"/>
+      <c r="F144" s="2"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E145" s="2"/>
-      <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="2"/>
-      <c r="J146" s="1"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
